--- a/Docs/PruebasReto2.xlsx
+++ b/Docs/PruebasReto2.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,6 +538,12 @@
       <c r="M5" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="N5">
+        <v>36.46</v>
+      </c>
+      <c r="O5">
+        <v>119.79333333333334</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -553,15 +559,23 @@
         <v>31.25</v>
       </c>
       <c r="E6">
-        <f>(C6+D6+B6)/3</f>
         <v>36.46</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H6">
+        <v>93.75</v>
+      </c>
+      <c r="I6">
+        <v>93.75</v>
+      </c>
+      <c r="J6">
+        <v>171.88</v>
+      </c>
       <c r="K6">
         <f>(I6+J6+H6)/3</f>
-        <v>0</v>
+        <v>119.79333333333334</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -611,6 +625,12 @@
       <c r="M8" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="N8">
+        <v>5567.71</v>
+      </c>
+      <c r="O8">
+        <v>10845.960000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -666,9 +686,18 @@
       <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H10">
+        <v>20859.38</v>
+      </c>
+      <c r="I10">
+        <v>1178.5</v>
+      </c>
+      <c r="J10">
+        <v>10500</v>
+      </c>
       <c r="K10">
         <f>(H10+I10+J10)/3</f>
-        <v>0</v>
+        <v>10845.960000000001</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>5</v>
@@ -692,6 +721,12 @@
       <c r="M11" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="N11">
+        <v>36.46</v>
+      </c>
+      <c r="O11">
+        <v>5.21</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -760,8 +795,7 @@
         <v>1601986.8333333333</v>
       </c>
       <c r="O13">
-        <f>K22</f>
-        <v>0</v>
+        <v>3562.5866666666666</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -784,12 +818,27 @@
       <c r="G14" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>15.63</v>
+      </c>
       <c r="K14">
         <f>(H14+I14+J14)/3</f>
-        <v>0</v>
+        <v>5.21</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="N14">
+        <v>1759276.8766666667</v>
+      </c>
+      <c r="O14">
+        <v>4098.96</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -837,7 +886,7 @@
         <v>3849.5666666666671</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,23 +907,29 @@
         <v>5</v>
       </c>
       <c r="H17">
-        <v>1686043.75</v>
+        <v>3531.5</v>
       </c>
       <c r="I17">
-        <v>1465449.36</v>
+        <v>3578.13</v>
       </c>
       <c r="J17">
-        <v>1654467.39</v>
+        <v>3578.13</v>
       </c>
       <c r="K17">
         <f>(H17+I17+J17)/3</f>
-        <v>1601986.8333333333</v>
+        <v>3562.5866666666666</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>8718.751666666667</v>
+      </c>
+      <c r="O17">
+        <v>5302.083333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -894,12 +949,21 @@
       <c r="G18" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H18">
+        <v>4125</v>
+      </c>
+      <c r="I18">
+        <v>4093.75</v>
+      </c>
+      <c r="J18">
+        <v>4078.13</v>
+      </c>
       <c r="K18">
         <f>(H18+I18+J18)/3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>4098.96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -907,7 +971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -933,7 +997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -967,7 +1031,7 @@
         <v>3849.5666666666671</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
@@ -987,9 +1051,18 @@
       <c r="G22" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H22">
+        <v>11343.75</v>
+      </c>
+      <c r="I22">
+        <v>4125</v>
+      </c>
+      <c r="J22">
+        <v>437.5</v>
+      </c>
       <c r="K22">
         <f>(H22+I22+J22)/3</f>
-        <v>0</v>
+        <v>5302.083333333333</v>
       </c>
     </row>
   </sheetData>
